--- a/tradept/Excel/Localization/english/J技能列表_Skills_HJJH_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J技能列表_Skills_HJJH_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D644E363-E421-42E2-9FC3-C0A414E28A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC81836-01F8-4D0D-BC27-0A66169A487C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>真言一剑</t>
   </si>
   <si>
-    <t>Incantation Strike</t>
-  </si>
-  <si>
     <t>催动内力发出一道剑气,剑气对身前1000范围的敌人造成[[phy_damage:[&amp;100+100*[%def_val%]+[%stat:s_攻击%]*0.5+[%stat:s_魔法攻击%]*0.5&amp;]点物理伤害]][[explain:(100+100*技能等级+物理攻击力*0.5+巫术攻击力*0.5)]],并附加[&amp;[%def_val%]+1&amp;]层[[effect:寒霜效果]](技能等级+1),持续10秒</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>百里之足</t>
   </si>
   <si>
-    <t>Raven Dash</t>
-  </si>
-  <si>
     <t>瞬间移动到1500范围内的一个指定位置,同时目标点500码内每有一个敌人,为自身叠加[[recover:[&amp;0.2*[%stat:s_魔法攻击%]*[%def_val%]+50&amp;]点临时护盾]][[explain:(0.2*巫术攻击力*技能等级+50)]],上限[[recover:[&amp;2*[%stat:s_魔法攻击%]*[%def_val%]+500&amp;]点]][[explain:(2*巫术攻击力*技能等级+500)]],持续5秒</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>墨剑古诀</t>
   </si>
   <si>
-    <t>Ancient Mantra</t>
-  </si>
-  <si>
     <t>古老的墨家歌诀,具有神秘的力量.自身每秒恢复[[recover:[&amp;0.3*[%def_val%]*[%stat:s_攻击%]&amp;]点生命值]][[explain:(0.3*技能等级*物理攻击力)]],持续10秒</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>墨剑光华</t>
   </si>
   <si>
-    <t>Raven Radiance</t>
-  </si>
-  <si>
     <t>光辉璀璨的一剑，对周围500范围内的敌人造成[[phy_damage:[&amp;200+[%def_val%]*0.8*[%stat:s_攻击%]&amp;]点物理伤害]][[explain:(200+技能等级*0.8*物理攻击力)]],并附加[[effect:致盲效果]],持续[&amp;2+2*[%def_val%]&amp;]秒[[explain:(2+2*技能等级)]]</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>墨子悲丝</t>
   </si>
   <si>
-    <t>Ebon Anguish</t>
-  </si>
-  <si>
     <t>在指定位置释放一次范围500的真气狂澜,造成[[mag_damage:[&amp;150*[%def_val%]+0.5*[%def_val%]*[%stat:s_魔法攻击%]&amp;]点巫术伤害]][[explain:(150*技能等级+0.5*技能等级*巫术攻击力)]]并随机附带[%def_val%]层[[effect:燃烧/寒霜/感电效果]][[explain:(1*技能等级)]],持续5秒.本技能在进入冷却之前还能重复释放2次,每次将会提高200点气力消耗和[[mag_damage:[%stat:s_魔法攻击%]点巫术伤害]][[explain:(1*巫术攻击力)]]</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>缚星锁</t>
   </si>
   <si>
-    <t>Heavy Starlight</t>
-  </si>
-  <si>
     <t>800码范围内的敌人定身5秒</t>
   </si>
   <si>
@@ -126,9 +108,6 @@
     <t>月白寒刃</t>
   </si>
   <si>
-    <t>Celestial Frostblade</t>
-  </si>
-  <si>
     <t>向指定方向瞬移一段距离,对沿途的敌人造成[[phy_damage:[&amp;0.8*[%stat:s_攻击%]*[%def_val%]&amp;]点物理伤害]][[explain:(0.8*物理攻击力*技能等级)]],并在抵达目标地点时释放一道500码范围的寒气,造成[[mag_damage:[&amp;0.8*[%stat:s_魔法攻击%]*[%def_val%]&amp;]点巫术伤害]][[explain:(0.8*巫术攻击力*技能等级)]]</t>
   </si>
   <si>
@@ -138,9 +117,6 @@
     <t>月白光华</t>
   </si>
   <si>
-    <t>Celestial Radiance</t>
-  </si>
-  <si>
     <t>光环技能,在光环开启的瞬间自身获得一个[[recover:[&amp;1*[%stat:s_攻击%]+[%stat:s_魔法攻击%]*[%def_val%]&amp;]点的护盾]][[explain:(1*物理攻击力+1*巫术攻击力*技能等级)]].光环持续10秒,期间1000范围内的友军获得[&amp;0.1*[%stat:s_魔法攻击%]*[%def_val%]&amp;]%的伤害减免[[explain:(0.1*巫术攻击力*技能等级)]]</t>
   </si>
   <si>
@@ -150,9 +126,6 @@
     <t>太极玄阴引</t>
   </si>
   <si>
-    <t>Supremacy</t>
-  </si>
-  <si>
     <t>将800范围内的敌人缓慢汇聚到身前,造成[[phy_damage:[&amp;400+1.5*[%def_val%]*[%stat:s_攻击%]&amp;]点物理伤害]][[explain:(400+1.5*技能等级*物理攻击力)]],附加[%def_val%]秒[[effect:昏迷效果]][[explain:(1*技能等级)]]</t>
   </si>
   <si>
@@ -162,9 +135,6 @@
     <t>剑气纵横</t>
   </si>
   <si>
-    <t>Incantation Strike (+)</t>
-  </si>
-  <si>
     <t>剑气范围提升至1500码</t>
   </si>
   <si>
@@ -174,9 +144,6 @@
     <t>寒剑</t>
   </si>
   <si>
-    <t>Incantation Strike (++)</t>
-  </si>
-  <si>
     <t>对处于寒霜效果的单位造成的伤害提高25%</t>
   </si>
   <si>
@@ -186,9 +153,6 @@
     <t>古老的誓言</t>
   </si>
   <si>
-    <t>Ancient Mantra (+)</t>
-  </si>
-  <si>
     <t>技能持续时间提升至15秒</t>
   </si>
   <si>
@@ -198,9 +162,6 @@
     <t>墨子之道</t>
   </si>
   <si>
-    <t>Ancient Mantra (++)</t>
-  </si>
-  <si>
     <t>技能持续期间,自身暴击率提升20%</t>
   </si>
   <si>
@@ -210,9 +171,6 @@
     <t>墨剑之锋</t>
   </si>
   <si>
-    <t>Raven Radiance (+)</t>
-  </si>
-  <si>
     <t>技能附加[[mag_damage:[%stat:s_魔法攻击%]点巫术伤害]][[explain:(1*巫术攻击力)]]</t>
   </si>
   <si>
@@ -222,9 +180,6 @@
     <t>月白庇护</t>
   </si>
   <si>
-    <t>Celestial Radiance (+)</t>
-  </si>
-  <si>
     <t>周围1000码的友军也将获得护盾效果</t>
   </si>
   <si>
@@ -234,9 +189,6 @@
     <t>万物终焉</t>
   </si>
   <si>
-    <t>Celestial Frostblade (+)</t>
-  </si>
-  <si>
     <t>寒气范围扩大至800码,将[[effect:冻结]]所有命中的敌人3秒</t>
   </si>
   <si>
@@ -246,9 +198,6 @@
     <t>群星静止</t>
   </si>
   <si>
-    <t>Heavy Starlight (+)</t>
-  </si>
-  <si>
     <t>所有敌人获得3层受伤加深效果,受到的伤害加深15%,持续15秒</t>
   </si>
   <si>
@@ -258,18 +207,12 @@
     <t>伤春悲秋</t>
   </si>
   <si>
-    <t>Ebon Anguish (+)</t>
-  </si>
-  <si>
     <t>第三次释放墨子悲丝范围扩大至800码,且必定造成暴击效果</t>
   </si>
   <si>
     <t>张月太极玄阴引强化1</t>
   </si>
   <si>
-    <t>Supremacy (+)</t>
-  </si>
-  <si>
     <t>技能命中的所有敌人在15秒内[[mag_damage:受到巫术伤害提升50%]]</t>
   </si>
   <si>
@@ -282,68 +225,127 @@
     <t>张月墨子悲丝三次</t>
   </si>
   <si>
-    <t>Canta un conjuro y expulsa energía de tu propia espada para infligir [[phy_damage:[&amp;100+100*[%def_val%]+[%stat:s_攻击%]*0.5+[%stat:s_魔法攻击%]*0.5&amp;] daño físico]] [[explain:(100 + 100 x Nivel de habilidad + Ataque físico x 0.5 + Ataque mágico x 0.5)]] a todos los enemigos a 1000 codos en la dirección objetivo. Inflige un efecto de [&amp;[%def_val%]+1&amp;]-nivel [[effect:Escarcha]] (Nivel de habilidad + 1) durante 10 segundos a todos los objetivos</t>
-  </si>
-  <si>
-    <t>Mueve instantáneamente a una ubicación objetivo dentro de 1500 codos. Al llegar, obtén un escudo que puede resistir [[recuperar:[&amp;0.2*[%stat:s_魔法攻击%]*[%def_val%]+50&amp;] de daño]] [[explicación:(0.2 x Ataque Mágico x Nivel de Habilidad + 50)]] por cada enemigo dentro de 500 codos. El escudo obtenido puede resistir [[recuperar:[&amp;2*[%stat:s_魔法攻击%]*[%def_val%]+500&amp;]]] de daño como máximo [[explicación:(2 x Ataque Mágico x Nivel de Habilidad + 500)]]. Dura 5 segundos</t>
-  </si>
-  <si>
-    <t>Un antiguo mantra de la Cresta del Cuervo que posee un poder misterioso. Recupera [[recuperar:[&amp;0.3*[%def_val%]*[%stat:s_攻击%]&amp;] Salud]] [[explicación:(0.3 x Nivel de habilidad x Ataque físico)]] cada segundo durante 10 segundos</t>
-  </si>
-  <si>
-    <t>La Espada Celestial brilla con una luz deslumbrante que inflige [[phy_damage:[&amp;200+[%def_val%]*0.8*[%stat:s_攻击%]&amp;] daño físico]] [[explain:(200 + Nivel de habilidad x 0.8 x Ataque físico)]] a todos los enemigos dentro de 500 codos. [[effect:Cegar]] a todos los objetivos durante [&amp;2+2*[%def_val%]&amp;] segundos [[explain:(2 + 2 x Nivel de habilidad)]]</t>
-  </si>
-  <si>
-    <t>Desata una angustia pura en un área de 500 cubits de ancho y causa [[mag_damage:[&amp;150*[%def_val%]+0.5*[%def_val%]*[%stat:s_魔法攻击%]&amp;] daño mágico]] [[explain:(150 x Nivel de habilidad + 0.5 x Nivel de habilidad x Ataque mágico)]] a todos los enemigos dentro. Afecta a todos los objetivos con un efecto de nivel [%def_val%] de [[effect:Quemadura/Congelación/Choque]] [[explain:(1 x Efecto de habilidad)]] durante 5 segundos. Esta habilidad se puede volver a usar un total de 3 veces antes de entrar en enfriamiento. Con cada uso, el costo del siguiente uso aumenta en 200 de maná y causa un daño adicional de [[mag_damage:[%stat:s_魔法攻击%] daño mágico]] [[explain:(1 x Ataque mágico)]]</t>
-  </si>
-  <si>
-    <t>Ata a todos los enemigos dentro de 800 codos durante 5 segundos</t>
-  </si>
-  <si>
-    <t>Teletranspórtate en la dirección objetivo y causa [[phy_damage:[&amp;0.8*[%stat:s_攻击%]*[%def_val%]&amp;] daño físico]] [[explain:(0.8 Ataque Físico x Nivel de Habilidad)]] a todos los enemigos en el camino. Al llegar al destino, desata una explosión helada de 500 cubits que causa [[mag_damage:[&amp;0.8*[%stat:s_魔法攻击%]*[%def_val%]&amp;] daño mágico]] [[explain:(0.8 x Ataque Mágico x Nivel de Habilidad)]] a todos los objetivos</t>
-  </si>
-  <si>
-    <t>Invoca un escudo radiante alrededor de uno mismo que puede resistir un daño de [[recuperar:[&amp;1*[%stat:s_攻击%]+[%stat:s_魔法攻击%]*[%def_val%]&amp;]]] [[explain:(1 x Ataque Físico + 1 x Ataque Mágico x Nivel de Habilidad)]]. El escudo dura 10 segundos y también aumenta la Reducción de Daño de todos los aliados dentro de 1000 codos en [&amp;0.1*[%stat:s_魔法攻击%]*[%def_val%]&amp;]% [[explain:(0.1 x Ataque Mágico x Nivel de Habilidad)]]</t>
-  </si>
-  <si>
-    <t>Atrae gradualmente a todos los enemigos dentro de 800 codos hacia uno mismo y luego inflige [[phy_damage:[&amp;400+1.5*[%def_val%]*[%stat:s_攻击%]&amp;] daño físico]] [[explain:(400 + 1.5 x Nivel de habilidad x Ataque físico)]]. [[effect:Aturde]] a todos los objetivos durante [%def_val%] segundos [[explain:(1 x Nivel de habilidad)]]</t>
-  </si>
-  <si>
-    <t>Aumenta el alcance de Incantation Strike a 1500 codos</t>
-  </si>
-  <si>
-    <t>Inflige un daño adicional del 25% a los objetivos que ya están afectados por Escarcha</t>
-  </si>
-  <si>
-    <t>Aumentar la duración de la habilidad a 15 segundos</t>
-  </si>
-  <si>
-    <t>Aumenta la propia tasa de crítico en un 20% mientras la habilidad está activa</t>
-  </si>
-  <si>
-    <t>Realiza un daño adicional de [[mag_damage:[%stat:s_魔法攻击%] daño mágico]] [[explain:(1 x Ataque Mágico)]]</t>
-  </si>
-  <si>
-    <t>Extender el efecto de escudo a todos los aliados dentro de 1000 codos</t>
-  </si>
-  <si>
-    <t>Aumenta el alcance de la ráfaga helada a 800 codos y [[efecto:Congela]] a todos los enemigos alcanzados durante 3 segundos</t>
-  </si>
-  <si>
-    <t>Afecta a todos los objetivos con un efecto de Debilitamiento de 3 niveles, aumentando el Daño Recibido en un 15% durante 15 segundos</t>
-  </si>
-  <si>
-    <t>Cada tercer uso de Angustia Ébano: Aumenta el alcance a 800 codos e impregna el ataque con un efecto de 100% de Crítico</t>
-  </si>
-  <si>
-    <t>Aumenta el [[mag_damage:Daño Mágico Recibido en un 50%]] de todos los objetivos durante 15 segundos</t>
+    <t>Incantação de Ataque</t>
+  </si>
+  <si>
+    <t>Corrida do Corvo</t>
+  </si>
+  <si>
+    <t>Mantra Antigo</t>
+  </si>
+  <si>
+    <t>Radiância do Corvo</t>
+  </si>
+  <si>
+    <t>Angústia Ebon</t>
+  </si>
+  <si>
+    <t>Luz Estelar Pesada</t>
+  </si>
+  <si>
+    <t>Lâmina de Gelo Celestial</t>
+  </si>
+  <si>
+    <t>Radiância Celestial</t>
+  </si>
+  <si>
+    <t>Supremacia</t>
+  </si>
+  <si>
+    <t>Incantação de Ataque (+)</t>
+  </si>
+  <si>
+    <t>Incantação de Ataque (++)</t>
+  </si>
+  <si>
+    <t>Mantra Antigo (+)</t>
+  </si>
+  <si>
+    <t>Mantra Antigo (++)</t>
+  </si>
+  <si>
+    <t>Radiância do Corvo (+)</t>
+  </si>
+  <si>
+    <t>Radiância Celestial (+)</t>
+  </si>
+  <si>
+    <t>Lâmina de Gelo Celestial (+)</t>
+  </si>
+  <si>
+    <t>Luz Estelar Pesada (+)</t>
+  </si>
+  <si>
+    <t>Angústia Ebon (+)</t>
+  </si>
+  <si>
+    <t>Supremacia (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recite uma incantação e expulse energia de sua espada para causar [[phy_damage:[&amp;100+100*[%def_val%]+[%stat:s_攻击%]*0.5+[%stat:s_魔法攻击%]*0.5&amp;] dano físico]] [[explain:(100 + 100 x Nível da Habilidade + Ataque Físico x 0.5 + Ataque Mágico x 0.5)]] a todos os inimigos a 1000 côvados na direção alvo. Inflija um efeito [[effect:Frost]] de grau [&amp;[%def_val%]+1&amp;] (Nível da Habilidade + 1) por 10 segundos em todos os alvos.
+</t>
+  </si>
+  <si>
+    <t>Mova-se instantaneamente para uma localização alvo dentro de 1500 côvados. Ao chegar, ganhe um escudo que pode suportar um dano de até [[recover:[&amp;0.2*[%stat:s_魔法攻击%]*[%def_val%]+50&amp;]]] [[explain:(0.2 x Ataque Mágico x Nível da Habilidade + 50)]] para cada inimigo dentro de 500 côvados. O escudo ganho pode suportar um dano de até [[recover:[&amp;2*[%stat:s_魔法攻击%]*[%def_val%]+500&amp;]]] [[explain:(2 x Ataque Mágico x Nível da Habilidade + 500)]]. Dura por 5 segundos.</t>
+  </si>
+  <si>
+    <t>Um antigo mantra da Crista do Corvo que possui um poder misterioso. Recupera [[recover:[&amp;0.3*[%def_val%]*[%stat:s_攻击%]&amp;] Health]] [[explain:(0.3 x Nível da habilidade x Ataque Físico)]] a cada segundo por 10 segundos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lâmina Celestial brilha com uma luz ofuscante que causa [phy_damage:[&amp;200+[%def_val%]0.8[%stat:s_攻击%]&amp;] de dano físico] [explain:(200 + Nível da Habilidade x 0.8 x Ataque Físico)] a todos os inimigos dentro de 500 cúbitos. [effect:Blind] todos os alvos por [2+2*[%def_val%]] segundos [explain:(2 + 2 x Nível da Habilidade)].
+</t>
+  </si>
+  <si>
+    <t>Desencadeie pura angústia em uma área de 500 cúbitos de largura e cause [mag_damage:[&amp;150*[%def_val%]+0.5*[%def_val%]*[%stat:s_魔法攻击%]&amp;] de dano mágico] [explain:(150 x Nível da Habilidade + 0.5 x Nível da Habilidade x Ataque Mágico)] a todos os inimigos dentro dela. Afete todos os alvos com um efeito de [queima/geada/choque] de nível [%def_val%] [explain:(1 x Efeito da Habilidade)] por 5 segundos. Esta habilidade pode ser usada novamente um total de 3 vezes antes de entrar em tempo de recarga. A cada uso, o custo do próximo aumento é de 200 de Mana e causa um dano adicional [mag_damage:[%stat:s_魔法攻击%] de dano mágico] [explain:(1 x Ataque Mágico)].</t>
+  </si>
+  <si>
+    <t>Prenda todos os inimigos dentro de 800 cúbitos por 5 segundos.</t>
+  </si>
+  <si>
+    <t>Teleporte na direção alvo e cause [phy_damage:[&amp;0.8*[%stat:s_攻击%][%def_val%]&amp;] de dano físico] [explain:(0.8 x Ataque Físico x Nível da Habilidade)] a todos os inimigos no caminho. Ao chegar ao destino, libere uma explosão gélida de 500 cúbitos que causa [mag_damage:[&amp;0.8[%stat:s_魔法攻击%]*[%def_val%]&amp;] de dano mágico] [explain:(0.8 x Ataque Mágico x Nível da Habilidade)] a todos os alvos.</t>
+  </si>
+  <si>
+    <t>Evocar um escudo radiante ao redor de si que pode suportar [recover:[&amp;1*[%stat:s_攻击%]+[%stat:s_魔法攻击%]*[%def_val%]&amp;]] de dano [explain:(1 x Ataque Físico + 1 x Ataque Mágico x Nível da Habilidade)]. O escudo dura por 10 segundos e também aumenta a Redução de Dano de todos os aliados dentro de 1000 cúbitos em [&amp;0.1*[%stat:s_魔法攻击%]*[%def_val%]&amp;]% [explain:(0.1 x Ataque Mágico x Nível da Habilidade)].</t>
+  </si>
+  <si>
+    <t>Atraia gradualmente todos os inimigos dentro de 800 cúbitos em direção a si e, em seguida, cause [phy_damage:[&amp;400+1.5*[%def_val%]*[%stat:s_攻击%]&amp;] de dano físico] [explain:(400 + 1.5 x Nível da Habilidade x Ataque Físico)]. [effect:Atordoamento] em todos os alvos por [%def_val%] segundos [explain:(1 x Nível da Habilidade)].</t>
+  </si>
+  <si>
+    <t>Aumente o alcance de Golpe de Invocação para 1500 cúbitos.</t>
+  </si>
+  <si>
+    <t>Causa um dano adicional de 25% aos alvos já afetados por Geada.</t>
+  </si>
+  <si>
+    <t>Aumente a duração da habilidade para 15 segundos.</t>
+  </si>
+  <si>
+    <t>Aumente a sua Taxa de Crítico em 20% enquanto a habilidade estiver ativa.</t>
+  </si>
+  <si>
+    <t>Causa um dano adicional de [mag_damage:[%stat:s_魔法攻击%] de dano mágico] [explain:(1 x Ataque Mágico)].</t>
+  </si>
+  <si>
+    <t>Estender o efeito do escudo para todos os aliados dentro de 1000 cúbitos.</t>
+  </si>
+  <si>
+    <t>Aumentar o alcance da explosão gélida para 800 cúbitos e  [[effect:Freeze]] todos os inimigos atingidos por 3 segundos.</t>
+  </si>
+  <si>
+    <t>Afetar todos os alvos com um efeito de Enfraquecimento de 3 níveis, aumentando o Dano Recebido deles em 15% por 15 segundos.</t>
+  </si>
+  <si>
+    <t>A cada terceiro uso de Angústia Sombria: Aumentar o alcance para 800 cúbitos e imbui o ataque com um efeito de Crítico de 100%.</t>
+  </si>
+  <si>
+    <t>Aumentar o [[mag_damage:Dano Mágico Recebido por 50%]] de todos os alvos por 15 segundos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -374,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -382,11 +384,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -402,6 +419,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,7 +447,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,16 +745,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -753,620 +780,620 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.5">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="300">
+    <row r="4" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5">
-      <c r="A5" s="4" t="s">
+      <c r="E5" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E6" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.5">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="4" t="s">
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E8" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.5">
-      <c r="A8" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E10" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.5">
-      <c r="A9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="405">
-      <c r="A10" s="4" t="s">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="E12" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60">
-      <c r="A11" s="4" t="s">
+      <c r="E13" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90">
-      <c r="A12" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60">
-      <c r="A13" s="4" t="s">
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75">
-      <c r="A14" s="4" t="s">
+      <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E18" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="165">
-      <c r="A15" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E19" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="75">
-      <c r="A16" s="4" t="s">
+      <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="120">
-      <c r="A17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="135">
-      <c r="A18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="135">
-      <c r="A19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="150">
-      <c r="A20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45">
-      <c r="A21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45">
-      <c r="A22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/english/J技能列表_Skills_HJJH_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J技能列表_Skills_HJJH_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC81836-01F8-4D0D-BC27-0A66169A487C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6AE0C0-E9F3-4051-8D74-D69420724CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,45 +54,30 @@
     <t>真言一剑</t>
   </si>
   <si>
-    <t>催动内力发出一道剑气,剑气对身前1000范围的敌人造成[[phy_damage:[&amp;100+100*[%def_val%]+[%stat:s_攻击%]*0.5+[%stat:s_魔法攻击%]*0.5&amp;]点物理伤害]][[explain:(100+100*技能等级+物理攻击力*0.5+巫术攻击力*0.5)]],并附加[&amp;[%def_val%]+1&amp;]层[[effect:寒霜效果]](技能等级+1),持续10秒</t>
-  </si>
-  <si>
     <t>墨剑百里之足</t>
   </si>
   <si>
     <t>百里之足</t>
   </si>
   <si>
-    <t>瞬间移动到1500范围内的一个指定位置,同时目标点500码内每有一个敌人,为自身叠加[[recover:[&amp;0.2*[%stat:s_魔法攻击%]*[%def_val%]+50&amp;]点临时护盾]][[explain:(0.2*巫术攻击力*技能等级+50)]],上限[[recover:[&amp;2*[%stat:s_魔法攻击%]*[%def_val%]+500&amp;]点]][[explain:(2*巫术攻击力*技能等级+500)]],持续5秒</t>
-  </si>
-  <si>
     <t>墨剑墨剑古诀</t>
   </si>
   <si>
     <t>墨剑古诀</t>
   </si>
   <si>
-    <t>古老的墨家歌诀,具有神秘的力量.自身每秒恢复[[recover:[&amp;0.3*[%def_val%]*[%stat:s_攻击%]&amp;]点生命值]][[explain:(0.3*技能等级*物理攻击力)]],持续10秒</t>
-  </si>
-  <si>
     <t>墨剑墨剑光华</t>
   </si>
   <si>
     <t>墨剑光华</t>
   </si>
   <si>
-    <t>光辉璀璨的一剑，对周围500范围内的敌人造成[[phy_damage:[&amp;200+[%def_val%]*0.8*[%stat:s_攻击%]&amp;]点物理伤害]][[explain:(200+技能等级*0.8*物理攻击力)]],并附加[[effect:致盲效果]],持续[&amp;2+2*[%def_val%]&amp;]秒[[explain:(2+2*技能等级)]]</t>
-  </si>
-  <si>
     <t>张月墨子悲丝</t>
   </si>
   <si>
     <t>墨子悲丝</t>
   </si>
   <si>
-    <t>在指定位置释放一次范围500的真气狂澜,造成[[mag_damage:[&amp;150*[%def_val%]+0.5*[%def_val%]*[%stat:s_魔法攻击%]&amp;]点巫术伤害]][[explain:(150*技能等级+0.5*技能等级*巫术攻击力)]]并随机附带[%def_val%]层[[effect:燃烧/寒霜/感电效果]][[explain:(1*技能等级)]],持续5秒.本技能在进入冷却之前还能重复释放2次,每次将会提高200点气力消耗和[[mag_damage:[%stat:s_魔法攻击%]点巫术伤害]][[explain:(1*巫术攻击力)]]</t>
-  </si>
-  <si>
     <t>张月缚星锁</t>
   </si>
   <si>
@@ -108,27 +93,18 @@
     <t>月白寒刃</t>
   </si>
   <si>
-    <t>向指定方向瞬移一段距离,对沿途的敌人造成[[phy_damage:[&amp;0.8*[%stat:s_攻击%]*[%def_val%]&amp;]点物理伤害]][[explain:(0.8*物理攻击力*技能等级)]],并在抵达目标地点时释放一道500码范围的寒气,造成[[mag_damage:[&amp;0.8*[%stat:s_魔法攻击%]*[%def_val%]&amp;]点巫术伤害]][[explain:(0.8*巫术攻击力*技能等级)]]</t>
-  </si>
-  <si>
     <t>张月月白光华</t>
   </si>
   <si>
     <t>月白光华</t>
   </si>
   <si>
-    <t>光环技能,在光环开启的瞬间自身获得一个[[recover:[&amp;1*[%stat:s_攻击%]+[%stat:s_魔法攻击%]*[%def_val%]&amp;]点的护盾]][[explain:(1*物理攻击力+1*巫术攻击力*技能等级)]].光环持续10秒,期间1000范围内的友军获得[&amp;0.1*[%stat:s_魔法攻击%]*[%def_val%]&amp;]%的伤害减免[[explain:(0.1*巫术攻击力*技能等级)]]</t>
-  </si>
-  <si>
     <t>张月太极玄阴引</t>
   </si>
   <si>
     <t>太极玄阴引</t>
   </si>
   <si>
-    <t>将800范围内的敌人缓慢汇聚到身前,造成[[phy_damage:[&amp;400+1.5*[%def_val%]*[%stat:s_攻击%]&amp;]点物理伤害]][[explain:(400+1.5*技能等级*物理攻击力)]],附加[%def_val%]秒[[effect:昏迷效果]][[explain:(1*技能等级)]]</t>
-  </si>
-  <si>
     <t>墨剑真言一剑强化1</t>
   </si>
   <si>
@@ -171,9 +147,6 @@
     <t>墨剑之锋</t>
   </si>
   <si>
-    <t>技能附加[[mag_damage:[%stat:s_魔法攻击%]点巫术伤害]][[explain:(1*巫术攻击力)]]</t>
-  </si>
-  <si>
     <t>张月月白光华强化1</t>
   </si>
   <si>
@@ -282,63 +255,90 @@
     <t>Supremacia (+)</t>
   </si>
   <si>
-    <t xml:space="preserve">Recite uma incantação e expulse energia de sua espada para causar [[phy_damage:[&amp;100+100*[%def_val%]+[%stat:s_攻击%]*0.5+[%stat:s_魔法攻击%]*0.5&amp;] dano físico]] [[explain:(100 + 100 x Nível da Habilidade + Ataque Físico x 0.5 + Ataque Mágico x 0.5)]] a todos os inimigos a 1000 côvados na direção alvo. Inflija um efeito [[effect:Frost]] de grau [&amp;[%def_val%]+1&amp;] (Nível da Habilidade + 1) por 10 segundos em todos os alvos.
+    <t>Prenda todos os inimigos dentro de 800 cúbitos por 5 segundos.</t>
+  </si>
+  <si>
+    <t>Aumente o alcance de Golpe de Invocação para 1500 cúbitos.</t>
+  </si>
+  <si>
+    <t>Causa um dano adicional de 25% aos alvos já afetados por Geada.</t>
+  </si>
+  <si>
+    <t>Aumente a duração da habilidade para 15 segundos.</t>
+  </si>
+  <si>
+    <t>Aumente a sua Taxa de Crítico em 20% enquanto a habilidade estiver ativa.</t>
+  </si>
+  <si>
+    <t>Estender o efeito do escudo para todos os aliados dentro de 1000 cúbitos.</t>
+  </si>
+  <si>
+    <t>Aumentar o alcance da explosão gélida para 800 cúbitos e  [[effect:Freeze]] todos os inimigos atingidos por 3 segundos.</t>
+  </si>
+  <si>
+    <t>Afetar todos os alvos com um efeito de Enfraquecimento de 3 níveis, aumentando o Dano Recebido deles em 15% por 15 segundos.</t>
+  </si>
+  <si>
+    <t>A cada terceiro uso de Angústia Sombria: Aumentar o alcance para 800 cúbitos e imbui o ataque com um efeito de Crítico de 100%.</t>
+  </si>
+  <si>
+    <t>Aumentar o [[mag_damage:Dano Mágico Recebido por 50%]] de todos os alvos por 15 segundos.</t>
+  </si>
+  <si>
+    <t>催动内力发出一道剑气,剑气对身前1000范围的敌人造成[[phy_damage:[&amp;100+100*[%def_val%]+[%stat:s_攻击%]*0.5+[%stat:s_魔法攻击%]*0.5&amp;]点物理伤害]][[Explicação:(100+100*技能等级+物理攻击力*0.5+巫术攻击力*0.5)]],并附加[&amp;[%def_val%]+1&amp;]层[[effect:寒霜效果]](技能等级+1),持续10秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recite uma incantação e expulse energia de sua espada para causar [[phy_damage:[&amp;100+100*[%def_val%]+[%stat:s_攻击%]*0.5+[%stat:s_魔法攻击%]*0.5&amp;] dano físico]] [[Explicação:(100 + 100 x Nível da Habilidade + Ataque Físico x 0.5 + Ataque Mágico x 0.5)]] a todos os inimigos a 1000 côvados na direção alvo. Inflija um efeito [[effect:Frost]] de grau [&amp;[%def_val%]+1&amp;] (Nível da Habilidade + 1) por 10 segundos em todos os alvos.
 </t>
   </si>
   <si>
-    <t>Mova-se instantaneamente para uma localização alvo dentro de 1500 côvados. Ao chegar, ganhe um escudo que pode suportar um dano de até [[recover:[&amp;0.2*[%stat:s_魔法攻击%]*[%def_val%]+50&amp;]]] [[explain:(0.2 x Ataque Mágico x Nível da Habilidade + 50)]] para cada inimigo dentro de 500 côvados. O escudo ganho pode suportar um dano de até [[recover:[&amp;2*[%stat:s_魔法攻击%]*[%def_val%]+500&amp;]]] [[explain:(2 x Ataque Mágico x Nível da Habilidade + 500)]]. Dura por 5 segundos.</t>
-  </si>
-  <si>
-    <t>Um antigo mantra da Crista do Corvo que possui um poder misterioso. Recupera [[recover:[&amp;0.3*[%def_val%]*[%stat:s_攻击%]&amp;] Health]] [[explain:(0.3 x Nível da habilidade x Ataque Físico)]] a cada segundo por 10 segundos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Lâmina Celestial brilha com uma luz ofuscante que causa [phy_damage:[&amp;200+[%def_val%]0.8[%stat:s_攻击%]&amp;] de dano físico] [explain:(200 + Nível da Habilidade x 0.8 x Ataque Físico)] a todos os inimigos dentro de 500 cúbitos. [effect:Blind] todos os alvos por [2+2*[%def_val%]] segundos [explain:(2 + 2 x Nível da Habilidade)].
+    <t>瞬间移动到1500范围内的一个指定位置,同时目标点500码内每有一个敌人,为自身叠加[[recover:[&amp;0.2*[%stat:s_魔法攻击%]*[%def_val%]+50&amp;]点临时护盾]][[Explicação:(0.2*巫术攻击力*技能等级+50)]],上限[[recover:[&amp;2*[%stat:s_魔法攻击%]*[%def_val%]+500&amp;]点]][[Explicação:(2*巫术攻击力*技能等级+500)]],持续5秒</t>
+  </si>
+  <si>
+    <t>Mova-se instantaneamente para uma localização alvo dentro de 1500 côvados. Ao chegar, ganhe um escudo que pode suportar um dano de até [[recover:[&amp;0.2*[%stat:s_魔法攻击%]*[%def_val%]+50&amp;]]] [[Explicação:(0.2 x Ataque Mágico x Nível da Habilidade + 50)]] para cada inimigo dentro de 500 côvados. O escudo ganho pode suportar um dano de até [[recover:[&amp;2*[%stat:s_魔法攻击%]*[%def_val%]+500&amp;]]] [[Explicação:(2 x Ataque Mágico x Nível da Habilidade + 500)]]. Dura por 5 segundos.</t>
+  </si>
+  <si>
+    <t>古老的墨家歌诀,具有神秘的力量.自身每秒恢复[[recover:[&amp;0.3*[%def_val%]*[%stat:s_攻击%]&amp;]点生命值]][[Explicação:(0.3*技能等级*物理攻击力)]],持续10秒</t>
+  </si>
+  <si>
+    <t>Um antigo mantra da Crista do Corvo que possui um poder misterioso. Recupera [[recover:[&amp;0.3*[%def_val%]*[%stat:s_攻击%]&amp;] Health]] [[Explicação:(0.3 x Nível da habilidade x Ataque Físico)]] a cada segundo por 10 segundos.</t>
+  </si>
+  <si>
+    <t>光辉璀璨的一剑，对周围500范围内的敌人造成[[phy_damage:[&amp;200+[%def_val%]*0.8*[%stat:s_攻击%]&amp;]点物理伤害]][[Explicação:(200+技能等级*0.8*物理攻击力)]],并附加[[effect:致盲效果]],持续[&amp;2+2*[%def_val%]&amp;]秒[[Explicação:(2+2*技能等级)]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lâmina Celestial brilha com uma luz ofuscante que causa [phy_damage:[&amp;200+[%def_val%]0.8[%stat:s_攻击%]&amp;] de dano físico] [Explicação:(200 + Nível da Habilidade x 0.8 x Ataque Físico)] a todos os inimigos dentro de 500 cúbitos. [effect:Blind] todos os alvos por [2+2*[%def_val%]] segundos [Explicação:(2 + 2 x Nível da Habilidade)].
 </t>
   </si>
   <si>
-    <t>Desencadeie pura angústia em uma área de 500 cúbitos de largura e cause [mag_damage:[&amp;150*[%def_val%]+0.5*[%def_val%]*[%stat:s_魔法攻击%]&amp;] de dano mágico] [explain:(150 x Nível da Habilidade + 0.5 x Nível da Habilidade x Ataque Mágico)] a todos os inimigos dentro dela. Afete todos os alvos com um efeito de [queima/geada/choque] de nível [%def_val%] [explain:(1 x Efeito da Habilidade)] por 5 segundos. Esta habilidade pode ser usada novamente um total de 3 vezes antes de entrar em tempo de recarga. A cada uso, o custo do próximo aumento é de 200 de Mana e causa um dano adicional [mag_damage:[%stat:s_魔法攻击%] de dano mágico] [explain:(1 x Ataque Mágico)].</t>
-  </si>
-  <si>
-    <t>Prenda todos os inimigos dentro de 800 cúbitos por 5 segundos.</t>
-  </si>
-  <si>
-    <t>Teleporte na direção alvo e cause [phy_damage:[&amp;0.8*[%stat:s_攻击%][%def_val%]&amp;] de dano físico] [explain:(0.8 x Ataque Físico x Nível da Habilidade)] a todos os inimigos no caminho. Ao chegar ao destino, libere uma explosão gélida de 500 cúbitos que causa [mag_damage:[&amp;0.8[%stat:s_魔法攻击%]*[%def_val%]&amp;] de dano mágico] [explain:(0.8 x Ataque Mágico x Nível da Habilidade)] a todos os alvos.</t>
-  </si>
-  <si>
-    <t>Evocar um escudo radiante ao redor de si que pode suportar [recover:[&amp;1*[%stat:s_攻击%]+[%stat:s_魔法攻击%]*[%def_val%]&amp;]] de dano [explain:(1 x Ataque Físico + 1 x Ataque Mágico x Nível da Habilidade)]. O escudo dura por 10 segundos e também aumenta a Redução de Dano de todos os aliados dentro de 1000 cúbitos em [&amp;0.1*[%stat:s_魔法攻击%]*[%def_val%]&amp;]% [explain:(0.1 x Ataque Mágico x Nível da Habilidade)].</t>
-  </si>
-  <si>
-    <t>Atraia gradualmente todos os inimigos dentro de 800 cúbitos em direção a si e, em seguida, cause [phy_damage:[&amp;400+1.5*[%def_val%]*[%stat:s_攻击%]&amp;] de dano físico] [explain:(400 + 1.5 x Nível da Habilidade x Ataque Físico)]. [effect:Atordoamento] em todos os alvos por [%def_val%] segundos [explain:(1 x Nível da Habilidade)].</t>
-  </si>
-  <si>
-    <t>Aumente o alcance de Golpe de Invocação para 1500 cúbitos.</t>
-  </si>
-  <si>
-    <t>Causa um dano adicional de 25% aos alvos já afetados por Geada.</t>
-  </si>
-  <si>
-    <t>Aumente a duração da habilidade para 15 segundos.</t>
-  </si>
-  <si>
-    <t>Aumente a sua Taxa de Crítico em 20% enquanto a habilidade estiver ativa.</t>
-  </si>
-  <si>
-    <t>Causa um dano adicional de [mag_damage:[%stat:s_魔法攻击%] de dano mágico] [explain:(1 x Ataque Mágico)].</t>
-  </si>
-  <si>
-    <t>Estender o efeito do escudo para todos os aliados dentro de 1000 cúbitos.</t>
-  </si>
-  <si>
-    <t>Aumentar o alcance da explosão gélida para 800 cúbitos e  [[effect:Freeze]] todos os inimigos atingidos por 3 segundos.</t>
-  </si>
-  <si>
-    <t>Afetar todos os alvos com um efeito de Enfraquecimento de 3 níveis, aumentando o Dano Recebido deles em 15% por 15 segundos.</t>
-  </si>
-  <si>
-    <t>A cada terceiro uso de Angústia Sombria: Aumentar o alcance para 800 cúbitos e imbui o ataque com um efeito de Crítico de 100%.</t>
-  </si>
-  <si>
-    <t>Aumentar o [[mag_damage:Dano Mágico Recebido por 50%]] de todos os alvos por 15 segundos.</t>
+    <t>在指定位置释放一次范围500的真气狂澜,造成[[mag_damage:[&amp;150*[%def_val%]+0.5*[%def_val%]*[%stat:s_魔法攻击%]&amp;]点巫术伤害]][[Explicação:(150*技能等级+0.5*技能等级*巫术攻击力)]]并随机附带[%def_val%]层[[effect:燃烧/寒霜/感电效果]][[Explicação:(1*技能等级)]],持续5秒.本技能在进入冷却之前还能重复释放2次,每次将会提高200点气力消耗和[[mag_damage:[%stat:s_魔法攻击%]点巫术伤害]][[Explicação:(1*巫术攻击力)]]</t>
+  </si>
+  <si>
+    <t>Desencadeie pura angústia em uma área de 500 cúbitos de largura e cause [mag_damage:[&amp;150*[%def_val%]+0.5*[%def_val%]*[%stat:s_魔法攻击%]&amp;] de dano mágico] [Explicação:(150 x Nível da Habilidade + 0.5 x Nível da Habilidade x Ataque Mágico)] a todos os inimigos dentro dela. Afete todos os alvos com um efeito de [queima/geada/choque] de nível [%def_val%] [Explicação:(1 x Efeito da Habilidade)] por 5 segundos. Esta habilidade pode ser usada novamente um total de 3 vezes antes de entrar em tempo de recarga. A cada uso, o custo do próximo aumento é de 200 de Mana e causa um dano adicional [mag_damage:[%stat:s_魔法攻击%] de dano mágico] [Explicação:(1 x Ataque Mágico)].</t>
+  </si>
+  <si>
+    <t>向指定方向瞬移一段距离,对沿途的敌人造成[[phy_damage:[&amp;0.8*[%stat:s_攻击%]*[%def_val%]&amp;]点物理伤害]][[Explicação:(0.8*物理攻击力*技能等级)]],并在抵达目标地点时释放一道500码范围的寒气,造成[[mag_damage:[&amp;0.8*[%stat:s_魔法攻击%]*[%def_val%]&amp;]点巫术伤害]][[Explicação:(0.8*巫术攻击力*技能等级)]]</t>
+  </si>
+  <si>
+    <t>Teleporte na direção alvo e cause [phy_damage:[&amp;0.8*[%stat:s_攻击%][%def_val%]&amp;] de dano físico] [Explicação:(0.8 x Ataque Físico x Nível da Habilidade)] a todos os inimigos no caminho. Ao chegar ao destino, libere uma explosão gélida de 500 cúbitos que causa [mag_damage:[&amp;0.8[%stat:s_魔法攻击%]*[%def_val%]&amp;] de dano mágico] [Explicação:(0.8 x Ataque Mágico x Nível da Habilidade)] a todos os alvos.</t>
+  </si>
+  <si>
+    <t>光环技能,在光环开启的瞬间自身获得一个[[recover:[&amp;1*[%stat:s_攻击%]+[%stat:s_魔法攻击%]*[%def_val%]&amp;]点的护盾]][[Explicação:(1*物理攻击力+1*巫术攻击力*技能等级)]].光环持续10秒,期间1000范围内的友军获得[&amp;0.1*[%stat:s_魔法攻击%]*[%def_val%]&amp;]%的伤害减免[[Explicação:(0.1*巫术攻击力*技能等级)]]</t>
+  </si>
+  <si>
+    <t>Evocar um escudo radiante ao redor de si que pode suportar [recover:[&amp;1*[%stat:s_攻击%]+[%stat:s_魔法攻击%]*[%def_val%]&amp;]] de dano [Explicação:(1 x Ataque Físico + 1 x Ataque Mágico x Nível da Habilidade)]. O escudo dura por 10 segundos e também aumenta a Redução de Dano de todos os aliados dentro de 1000 cúbitos em [&amp;0.1*[%stat:s_魔法攻击%]*[%def_val%]&amp;]% [Explicação:(0.1 x Ataque Mágico x Nível da Habilidade)].</t>
+  </si>
+  <si>
+    <t>将800范围内的敌人缓慢汇聚到身前,造成[[phy_damage:[&amp;400+1.5*[%def_val%]*[%stat:s_攻击%]&amp;]点物理伤害]][[Explicação:(400+1.5*技能等级*物理攻击力)]],附加[%def_val%]秒[[effect:昏迷效果]][[Explicação:(1*技能等级)]]</t>
+  </si>
+  <si>
+    <t>Atraia gradualmente todos os inimigos dentro de 800 cúbitos em direção a si e, em seguida, cause [phy_damage:[&amp;400+1.5*[%def_val%]*[%stat:s_攻击%]&amp;] de dano físico] [Explicação:(400 + 1.5 x Nível da Habilidade x Ataque Físico)]. [effect:Atordoamento] em todos os alvos por [%def_val%] segundos [Explicação:(1 x Nível da Habilidade)].</t>
+  </si>
+  <si>
+    <t>技能附加[[mag_damage:[%stat:s_魔法攻击%]点巫术伤害]][[Explicação:(1*巫术攻击力)]]</t>
+  </si>
+  <si>
+    <t>Causa um dano adicional de [mag_damage:[%stat:s_魔法攻击%] de dano mágico] [Explicação:(1 x Ataque Mágico)].</t>
   </si>
 </sst>
 </file>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,620 +780,620 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
